--- a/biology/Histoire de la zoologie et de la botanique/Jean-Jacques_Petter/Jean-Jacques_Petter.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Jacques_Petter/Jean-Jacques_Petter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Jacques Petter (né le 3 juillet 1927 à Paris 4e et mort le 27 mai 2002 à Noisy-le-Grand[1]) est un zoologiste français. C'est le frère cadet de Francis Petter.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Jacques Petter (né le 3 juillet 1927 à Paris 4e et mort le 27 mai 2002 à Noisy-le-Grand) est un zoologiste français. C'est le frère cadet de Francis Petter.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Muséum national d'histoire naturelle, il effectua sa carrière au sein de la chaire d'Écologie et protection de la nature, puis d'Écologie générale, dont le laboratoire est situé à Brunoy.
 Il prit, en 1989, la succession de François Doumenge à la tête de la chaire d'Éthologie et conservation des espèces animales.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean-Jacques Petter, Recherches sur l'écologie et l'éthologie des lémuriens malgaches, Éditions du Muséum national d'histoire naturelle, Paris, 1962.
 Jean-Jacques Petter, Roland Albignac &amp; Yves Rumpler, Mammifères Lémuriens (Primates prosimiens), Volume 44 de Faune de Madagascar, Éditions de l'O.R.S.T.O.M. - C.N.R.S., Paris, 1977.
